--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanw\gittest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1113,2158 +1113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>日均访问量</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                          <a:lumOff val="40000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>访问量统计!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>访问量统计!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1"/>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="lt1">
-                      <a:alpha val="0"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
-        <c:smooth val="0"/>
-        <c:axId val="248124200"/>
-        <c:axId val="248123808"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="248124200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248123808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="248123808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="248124200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>日均访问所占比例</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>访问量统计!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>42092</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42094</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42096</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42101</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>访问量统计!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3655,7 +1503,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
